--- a/data/trans_bre/P2C_R2-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P2C_R2-Habitat-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>3.031129950258071</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4.097016102027812</v>
+        <v>4.097016102027815</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2308667999788237</v>
@@ -649,7 +649,7 @@
         <v>0.08941528481497636</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.3132126371394686</v>
+        <v>0.3132126371394688</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.227805593750388</v>
+        <v>2.176709549915376</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.02013154294448521</v>
+        <v>-0.200594321782379</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.483900820517717</v>
+        <v>-2.378955135662562</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.4588249619571503</v>
+        <v>0.393927135610373</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.06343985999459828</v>
+        <v>0.06624125777910436</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.002188655355408104</v>
+        <v>-0.005768145552931486</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.06913618858230848</v>
+        <v>-0.06993681819399261</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.02804641437341157</v>
+        <v>0.02324728669319102</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>12.39752054196818</v>
+        <v>11.98318727544436</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>10.65098040877635</v>
+        <v>10.95651252471893</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.936532085252845</v>
+        <v>8.368857416026161</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.492395569352405</v>
+        <v>7.656171782155259</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.4352251926450511</v>
+        <v>0.4280317551339131</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2428025240837024</v>
+        <v>0.2445849586835028</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2582192347628461</v>
+        <v>0.2664206958863944</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.6657291045152686</v>
+        <v>0.6699916136715059</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.4704964923112478</v>
+        <v>-0.2853475922015766</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.756803067070314</v>
+        <v>2.753121948853352</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4.620891518444294</v>
+        <v>4.547974538907159</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2.582104287839235</v>
+        <v>2.610687058020469</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.01606902490095583</v>
+        <v>-0.007953037460356088</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.05324390271394629</v>
+        <v>0.05438659687047232</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1266583165565084</v>
+        <v>0.13055176436522</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.140180298347369</v>
+        <v>0.1334698276150537</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>8.285928047368738</v>
+        <v>8.395830235040204</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>11.896280324414</v>
+        <v>11.73996227355964</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>13.84794657198393</v>
+        <v>13.31116930299069</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>9.324198359446893</v>
+        <v>9.470118917960139</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2930282463615257</v>
+        <v>0.2950871012102996</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2608355072998285</v>
+        <v>0.2552763562282888</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4325099515779224</v>
+        <v>0.4194112231461274</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.6316295720061467</v>
+        <v>0.6338956105675034</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.2701389460847705</v>
+        <v>0.1056099422825838</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>3.176586971321627</v>
+        <v>2.926908669409985</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4.229935233560011</v>
+        <v>3.905143239476797</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.462208448295176</v>
+        <v>2.259684188409083</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.01012027770371204</v>
+        <v>4.889532014909032e-05</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.06744817676302001</v>
+        <v>0.06450299904066503</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1229817078069753</v>
+        <v>0.1161457905687646</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.183055139767974</v>
+        <v>0.1661839103730402</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>10.3687884452145</v>
+        <v>9.884375929036977</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>14.28065257758662</v>
+        <v>14.12669786886426</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>14.39900184740141</v>
+        <v>13.70024224579155</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9.470618421822854</v>
+        <v>9.561190587324543</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.3904174030678796</v>
+        <v>0.3737298687813044</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3495217768916669</v>
+        <v>0.3379902808194703</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5030639550540255</v>
+        <v>0.4803120030416086</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.000210418866174</v>
+        <v>0.9389219315959674</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.313819539358691</v>
+        <v>1.820836407665459</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.696798090301543</v>
+        <v>2.656722087071322</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3.875348779615331</v>
+        <v>3.642687880903798</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.5121391935614794</v>
+        <v>-0.7301366321079661</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.03866041077088415</v>
+        <v>0.06584450920787495</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.06425198201944581</v>
+        <v>0.0621926307844466</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1311086242429083</v>
+        <v>0.1231551407399923</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.03642836800609414</v>
+        <v>-0.05319142417224669</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>9.715535207820462</v>
+        <v>9.691458332091615</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>11.18424290103405</v>
+        <v>11.33070336672586</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>12.01201063089209</v>
+        <v>11.98683301115094</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5.057103744989159</v>
+        <v>5.169603593019743</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3874732444983153</v>
+        <v>0.3957252363106072</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3069014352404421</v>
+        <v>0.3056224433276807</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4855984126361088</v>
+        <v>0.4827378843765752</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4893548699185338</v>
+        <v>0.4902833222780097</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>7.445024231281694</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4.474245901179799</v>
+        <v>4.474245901179796</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1842532268147353</v>
@@ -1049,7 +1049,7 @@
         <v>0.237802234292573</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.3300746283986</v>
+        <v>0.3300746283985998</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.930079775047802</v>
+        <v>3.237156731000474</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>4.373262067950064</v>
+        <v>4.092237192775382</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5.166596449984115</v>
+        <v>4.98572569698438</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.732263227854627</v>
+        <v>2.930253193656724</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.09676722206335499</v>
+        <v>0.1076680610895309</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09480684909724442</v>
+        <v>0.08812624241470325</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1583804842847127</v>
+        <v>0.1581032575544479</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.1898516803996753</v>
+        <v>0.2037822569716617</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.749600508390183</v>
+        <v>7.816951059135767</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>9.445836104269903</v>
+        <v>9.097688797970306</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9.840080653847401</v>
+        <v>9.904749291990482</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.250077945423753</v>
+        <v>6.428613142043806</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.2753526683338518</v>
+        <v>0.2806250065070418</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2172488588510332</v>
+        <v>0.208811029321718</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3264634531559131</v>
+        <v>0.3313976945863921</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.4870738974513178</v>
+        <v>0.5134386652258516</v>
       </c>
     </row>
     <row r="19">
